--- a/RT.xlsx
+++ b/RT.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raquelgalanmontes/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raquelgalanmontes/Desktop/wiki_TFG/TFG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F2ABF3D-ABA5-8F4C-8393-ACEFEAA5F6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E58277-C3A6-DF44-BC5A-1CCAF9F53831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{67B43A84-8328-DD46-96B4-A03D11A0EF1A}"/>
   </bookViews>
   <sheets>
     <sheet name="TR" sheetId="2" r:id="rId1"/>
-    <sheet name="TR_resultado" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Posición Micrófono 1</t>
   </si>
@@ -55,22 +54,7 @@
     <t>RT20</t>
   </si>
   <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>Pos 1</t>
-  </si>
-  <si>
-    <t>Pos 2</t>
-  </si>
-  <si>
-    <t>Dif. Samurai</t>
-  </si>
-  <si>
     <t>Redondeo y media</t>
-  </si>
-  <si>
-    <t>dec</t>
   </si>
   <si>
     <t>Caída 1 M1-F1</t>
@@ -105,15 +89,15 @@
   <si>
     <t>POSICIÓN 2</t>
   </si>
+  <si>
+    <t>Resultado</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +132,12 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -246,88 +236,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,36 +254,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -390,60 +281,11 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -470,50 +312,9 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -683,43 +484,6 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -733,70 +497,24 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>408581</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FCE6BFC-D565-7148-878D-B4630F03F0AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="293" t="16016" r="40528" b="6640"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6908800" y="0"/>
-          <a:ext cx="5882281" cy="5765800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{35F8CB98-7B17-3B4A-84E2-644189BE21FF}" name="Table4" displayName="Table4" ref="B5:C26" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{35F8CB98-7B17-3B4A-84E2-644189BE21FF}" name="Table4" displayName="Table4" ref="B5:C26" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="B5:C26" xr:uid="{35F8CB98-7B17-3B4A-84E2-644189BE21FF}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{66C146A0-2111-4B4C-8424-A4EAEE8C6CA7}" name="FR [Hz]" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{5963F174-F954-A447-AF67-F1D58091FA03}" name="RT20"/>
+    <tableColumn id="1" xr3:uid="{66C146A0-2111-4B4C-8424-A4EAEE8C6CA7}" name="FR [Hz]" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{5963F174-F954-A447-AF67-F1D58091FA03}" name="RT20" dataDxfId="0">
+      <calculatedColumnFormula>(Table5[[#This Row],[RT20]]+Table6[[#This Row],[RT20]])/2</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F6F88507-5195-2A49-9E46-2FC3C0E01620}" name="Table5" displayName="Table5" ref="E5:F26" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F6F88507-5195-2A49-9E46-2FC3C0E01620}" name="Table5" displayName="Table5" ref="E5:F26" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="E5:F26" xr:uid="{F6F88507-5195-2A49-9E46-2FC3C0E01620}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EC404562-1531-334F-875B-7963A3D83D55}" name="FR [Hz]" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{EC404562-1531-334F-875B-7963A3D83D55}" name="FR [Hz]" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{FFEC22FF-6EAE-1A43-AEB9-F925C43D31BC}" name="RT20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -804,10 +522,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0E84ACB6-7225-A947-AB01-BA9EB68CEC0A}" name="Table6" displayName="Table6" ref="H5:I26" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0E84ACB6-7225-A947-AB01-BA9EB68CEC0A}" name="Table6" displayName="Table6" ref="H5:I26" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="H5:I26" xr:uid="{0E84ACB6-7225-A947-AB01-BA9EB68CEC0A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{70E056DE-7BDF-E84F-B1DE-24987278236E}" name="FR [Hz]" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{70E056DE-7BDF-E84F-B1DE-24987278236E}" name="FR [Hz]" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{4343061B-BA87-B042-BEBF-9553AAA62FE6}" name="RT20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -815,63 +533,30 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CB232B2B-9456-634F-A95D-666DF62C00FB}" name="Table9" displayName="Table9" ref="K5:O26" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CB232B2B-9456-634F-A95D-666DF62C00FB}" name="Table9" displayName="Table9" ref="K5:O26" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="K5:O26" xr:uid="{CB232B2B-9456-634F-A95D-666DF62C00FB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{66FCD303-B5C1-E64B-A056-B036FCF18FBE}" name="FR [Hz]" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{A253C9C1-D015-DC46-AB4F-A07D1953CAE2}" name="Caída 1 M1-F1" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{D09E3BFF-6026-7D44-A473-72E56B35D5A1}" name="Caída 2 M1-F1" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00CAE85B-7B61-214D-8B1F-E67139ECF154}" name="Caída 1 M2-F1" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{665CD4E4-66F6-6A44-A78F-D8E6B6A8C8E3}" name="Caída 2 M2-F1" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{66FCD303-B5C1-E64B-A056-B036FCF18FBE}" name="FR [Hz]" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{A253C9C1-D015-DC46-AB4F-A07D1953CAE2}" name="Caída 1 M1-F1" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{D09E3BFF-6026-7D44-A473-72E56B35D5A1}" name="Caída 2 M1-F1" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00CAE85B-7B61-214D-8B1F-E67139ECF154}" name="Caída 1 M2-F1" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{665CD4E4-66F6-6A44-A78F-D8E6B6A8C8E3}" name="Caída 2 M2-F1" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{8A263845-C596-4A41-A481-98ADB298384E}" name="Table10" displayName="Table10" ref="R5:V26" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{8A263845-C596-4A41-A481-98ADB298384E}" name="Table10" displayName="Table10" ref="R5:V26" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="R5:V26" xr:uid="{8A263845-C596-4A41-A481-98ADB298384E}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2B8465FE-C667-574A-A0B5-10B7F6F2BBB3}" name="FR [Hz]" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{B1A281F0-4E8D-2A43-9D67-452104454E4A}" name="Caída 1 M1-F2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{6D9FAF71-4646-FD44-9151-7E3FC0C9B0A0}" name="Caída 2 M1-F2" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{7AA099C0-F497-3E4C-B422-9ABB9438327E}" name="Caída 1 M2-F2" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{8629CC53-6CA1-5246-AE72-FC332432EA78}" name="Caída 2 M2-F2" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{2B8465FE-C667-574A-A0B5-10B7F6F2BBB3}" name="FR [Hz]" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{B1A281F0-4E8D-2A43-9D67-452104454E4A}" name="Caída 1 M1-F2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{6D9FAF71-4646-FD44-9151-7E3FC0C9B0A0}" name="Caída 2 M1-F2" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{7AA099C0-F497-3E4C-B422-9ABB9438327E}" name="Caída 1 M2-F2" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{8629CC53-6CA1-5246-AE72-FC332432EA78}" name="Caída 2 M2-F2" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDC0537D-1F19-5244-8236-BFE436CCEA9D}" name="Table1" displayName="Table1" ref="A4:B29" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B62087B7-B667-6B4C-A198-AE90EE2F1D06}" name="Column1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{46926D63-53B4-1043-B26D-8DF1F12A30A8}" name="Column2"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4D809E05-BC06-AE4A-BBDC-1720A9B5DE88}" name="Table2" displayName="Table2" ref="D4:F28" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{45D4CD63-EE70-4F45-AA5B-825232793E7B}" name="Column1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{D64EF57C-625E-2C4D-9BA7-EB324C0BCB9A}" name="Column2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D3E42AA6-2F2B-AA48-9532-440790EAA55C}" name="Column3"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A035FB4A-8DD0-B94A-8571-63BCFCA77B13}" name="Table3" displayName="Table3" ref="H4:I28" headerRowCount="0" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{98BFD287-0BBA-CE4B-8567-3B3238BE6F42}" name="Column1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{4A660521-3F42-0B45-BC09-76B49705C5DF}" name="Column2" dataDxfId="0">
-      <calculatedColumnFormula>ROUND(AVERAGE(#REF!,#REF!),1)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1175,7 +860,7 @@
   <dimension ref="B3:AE26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1195,121 +880,129 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="K3" s="22" t="s">
+      <c r="B3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="K3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="R3" s="22" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="R3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="E4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="24"/>
-      <c r="H4" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="24"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="26" t="s">
+      <c r="B4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="E4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="H4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="25" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="25"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="26" t="s">
+      <c r="O4" s="14"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="25" t="s">
+      <c r="T4" s="15"/>
+      <c r="U4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="V4" s="25"/>
+      <c r="V4" s="14"/>
     </row>
     <row r="5" spans="2:31" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="U5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="V5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="X5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="7"/>
-      <c r="AE5" s="7"/>
+      <c r="W5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="6"/>
+      <c r="AE5" s="6"/>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>50</v>
       </c>
-      <c r="C6">
-        <v>1.26</v>
+      <c r="C6" s="4">
+        <f>(Table5[[#This Row],[RT20]]+Table6[[#This Row],[RT20]])/2</f>
+        <v>1.2850000000000001</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
@@ -1326,55 +1019,53 @@
       <c r="K6" s="2">
         <v>50</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>1.48</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>1.02</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <v>1.27</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>1.48</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="4">
         <f t="shared" ref="P6:P26" si="0">ROUND(AVERAGE(L6:O6),2)</f>
         <v>1.31</v>
       </c>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="4"/>
       <c r="R6" s="2">
         <v>50</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <v>2.0699999999999998</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <v>0.93</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="5">
         <v>0.54</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="5">
         <v>1.29</v>
       </c>
       <c r="W6" s="4">
         <f>ROUND(AVERAGE(S6:V6),2)</f>
         <v>1.21</v>
       </c>
-      <c r="X6" s="5">
-        <f>W6-V6</f>
-        <v>-8.0000000000000071E-2</v>
-      </c>
-      <c r="Z6" s="5"/>
-      <c r="AE6" s="5"/>
+      <c r="X6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AE6" s="4"/>
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>63</v>
       </c>
-      <c r="C7">
-        <v>0.61</v>
+      <c r="C7" s="4">
+        <f>(Table5[[#This Row],[RT20]]+Table6[[#This Row],[RT20]])/2</f>
+        <v>0.52500000000000002</v>
       </c>
       <c r="E7" s="1">
         <v>63</v>
@@ -1391,55 +1082,53 @@
       <c r="K7" s="2">
         <v>63</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>0.39</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <v>0.31</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>0.48</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
         <f t="shared" si="0"/>
         <v>0.44</v>
       </c>
-      <c r="Q7" s="5"/>
+      <c r="Q7" s="4"/>
       <c r="R7" s="2">
         <v>63</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <v>0.52</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="5">
         <v>0.35</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="5">
         <v>1.67</v>
       </c>
       <c r="W7" s="4">
         <f t="shared" ref="W7:W26" si="1">ROUND(AVERAGE(S7:V7),2)</f>
         <v>0.77</v>
       </c>
-      <c r="X7" s="5">
-        <f>W7-V7</f>
-        <v>-0.89999999999999991</v>
-      </c>
-      <c r="Z7" s="5"/>
-      <c r="AE7" s="5"/>
+      <c r="X7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AE7" s="4"/>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>80</v>
       </c>
-      <c r="C8">
-        <v>0.56999999999999995</v>
+      <c r="C8" s="4">
+        <f>(Table5[[#This Row],[RT20]]+Table6[[#This Row],[RT20]])/2</f>
+        <v>0.51500000000000001</v>
       </c>
       <c r="E8" s="1">
         <v>80</v>
@@ -1456,55 +1145,53 @@
       <c r="K8" s="2">
         <v>80</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>0.45</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>0.38</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <v>0.68</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>0.35</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="4">
         <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="4"/>
       <c r="R8" s="2">
         <v>80</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <v>0.82</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <v>1.06</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="5">
         <v>0.54</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="5">
         <v>0.28999999999999998</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="1"/>
         <v>0.68</v>
       </c>
-      <c r="X8" s="5">
-        <f t="shared" ref="X8:X26" si="2">W8-V8</f>
-        <v>0.39000000000000007</v>
-      </c>
-      <c r="Z8" s="5"/>
-      <c r="AE8" s="5"/>
+      <c r="X8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AE8" s="4"/>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>100</v>
       </c>
-      <c r="C9">
-        <v>0.77</v>
+      <c r="C9" s="4">
+        <f>(Table5[[#This Row],[RT20]]+Table6[[#This Row],[RT20]])/2</f>
+        <v>0.93</v>
       </c>
       <c r="E9" s="1">
         <v>100</v>
@@ -1521,55 +1208,53 @@
       <c r="K9" s="2">
         <v>100</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>2.84</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>0.42</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>0.5</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>0.6</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="4">
         <f t="shared" si="0"/>
         <v>1.0900000000000001</v>
       </c>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="4"/>
       <c r="R9" s="2">
         <v>100</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <v>0.35</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>0.54</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="5">
         <v>0.45</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="5">
         <v>0.46</v>
       </c>
       <c r="W9" s="4">
         <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
-      <c r="X9" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="Z9" s="5"/>
-      <c r="AE9" s="5"/>
+      <c r="X9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AE9" s="4"/>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>125</v>
       </c>
-      <c r="C10">
-        <v>0.53</v>
+      <c r="C10" s="4">
+        <f>(Table5[[#This Row],[RT20]]+Table6[[#This Row],[RT20]])/2</f>
+        <v>0.60000000000000009</v>
       </c>
       <c r="E10" s="1">
         <v>125</v>
@@ -1586,55 +1271,53 @@
       <c r="K10" s="2">
         <v>125</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>0.46</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>0.59</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <v>1.19</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <v>0.42</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
         <f t="shared" si="0"/>
         <v>0.67</v>
       </c>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="4"/>
       <c r="R10" s="2">
         <v>125</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="5">
         <v>0.36</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="5">
         <v>0.46</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="5">
         <v>0.36</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="5">
         <v>0.35</v>
       </c>
       <c r="W10" s="4">
         <f t="shared" si="1"/>
         <v>0.38</v>
       </c>
-      <c r="X10" s="5">
-        <f t="shared" si="2"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="Z10" s="5"/>
-      <c r="AE10" s="5"/>
+      <c r="X10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AE10" s="4"/>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>160</v>
       </c>
-      <c r="C11" s="5">
-        <v>0.6</v>
+      <c r="C11" s="4">
+        <f>(Table5[[#This Row],[RT20]]+Table6[[#This Row],[RT20]])/2</f>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E11" s="1">
         <v>160</v>
@@ -1645,61 +1328,59 @@
       <c r="H11" s="1">
         <v>160</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>0.6</v>
       </c>
       <c r="K11" s="2">
         <v>160</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>0.47</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>0.51</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <v>0.65</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="5">
         <v>0.46</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="4">
         <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="4"/>
       <c r="R11" s="2">
         <v>160</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="5">
         <v>0.47</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="5">
         <v>0.46</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="5">
         <v>1.1200000000000001</v>
       </c>
-      <c r="V11" s="6">
+      <c r="V11" s="5">
         <v>0.65</v>
       </c>
       <c r="W11" s="4">
         <f t="shared" si="1"/>
         <v>0.68</v>
       </c>
-      <c r="X11" s="5">
-        <f t="shared" si="2"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="Z11" s="5"/>
-      <c r="AE11" s="5"/>
+      <c r="X11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AE11" s="4"/>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>200</v>
       </c>
-      <c r="C12">
-        <v>0.47</v>
+      <c r="C12" s="4">
+        <f>(Table5[[#This Row],[RT20]]+Table6[[#This Row],[RT20]])/2</f>
+        <v>0.43999999999999995</v>
       </c>
       <c r="E12" s="1">
         <v>200</v>
@@ -1716,55 +1397,53 @@
       <c r="K12" s="2">
         <v>200</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>0.38</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>0.44</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="5">
         <v>0.4</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <v>0.44</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <f t="shared" si="0"/>
         <v>0.42</v>
       </c>
-      <c r="Q12" s="5"/>
+      <c r="Q12" s="4"/>
       <c r="R12" s="2">
         <v>200</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="5">
         <v>0.38</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="5">
         <v>0.43</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="5">
         <v>0.64</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="5">
         <v>0.64</v>
       </c>
       <c r="W12" s="4">
         <f t="shared" si="1"/>
         <v>0.52</v>
       </c>
-      <c r="X12" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.12</v>
-      </c>
-      <c r="Z12" s="5"/>
-      <c r="AE12" s="5"/>
+      <c r="X12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AE12" s="4"/>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>250</v>
       </c>
-      <c r="C13">
-        <v>0.56999999999999995</v>
+      <c r="C13" s="4">
+        <f>(Table5[[#This Row],[RT20]]+Table6[[#This Row],[RT20]])/2</f>
+        <v>0.52</v>
       </c>
       <c r="E13" s="1">
         <v>250</v>
@@ -1781,57 +1460,55 @@
       <c r="K13" s="2">
         <v>250</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="8">
         <v>0.46</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>0.3</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="9">
         <v>0.45</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="4">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="Q13" s="5"/>
+      <c r="Q13" s="4"/>
       <c r="R13" s="2">
         <v>250</v>
       </c>
-      <c r="S13" s="19">
+      <c r="S13" s="8">
         <v>0.78</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="5">
         <v>0.59</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="5">
         <v>0.63</v>
       </c>
-      <c r="V13" s="20">
+      <c r="V13" s="9">
         <v>0.7</v>
       </c>
       <c r="W13" s="4">
         <f t="shared" si="1"/>
         <v>0.68</v>
       </c>
-      <c r="X13" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.9999999999999907E-2</v>
-      </c>
-      <c r="Z13" s="5"/>
+      <c r="X13" s="4"/>
+      <c r="Z13" s="4"/>
       <c r="AA13" s="3"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>315</v>
       </c>
-      <c r="C14">
-        <v>0.56000000000000005</v>
+      <c r="C14" s="4">
+        <f>(Table5[[#This Row],[RT20]]+Table6[[#This Row],[RT20]])/2</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E14" s="1">
         <v>315</v>
@@ -1848,57 +1525,55 @@
       <c r="K14" s="2">
         <v>315</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>0.47</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="9">
         <v>0.57999999999999996</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="9">
         <v>0.46</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>0.5</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="4">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="Q14" s="5"/>
+      <c r="Q14" s="4"/>
       <c r="R14" s="2">
         <v>315</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="T14" s="20">
+      <c r="T14" s="9">
         <v>0.7</v>
       </c>
-      <c r="U14" s="20">
+      <c r="U14" s="9">
         <v>0.5</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V14" s="5">
         <v>0.51</v>
       </c>
       <c r="W14" s="4">
         <f t="shared" si="1"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="X14" s="5">
-        <f t="shared" si="2"/>
-        <v>5.9999999999999942E-2</v>
-      </c>
-      <c r="Z14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AE14" s="5"/>
+      <c r="X14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AE14" s="4"/>
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>400</v>
       </c>
-      <c r="C15">
-        <v>0.41</v>
+      <c r="C15" s="4">
+        <f>(Table5[[#This Row],[RT20]]+Table6[[#This Row],[RT20]])/2</f>
+        <v>0.42499999999999999</v>
       </c>
       <c r="E15" s="1">
         <v>400</v>
@@ -1915,54 +1590,52 @@
       <c r="K15" s="2">
         <v>400</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>0.38</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="5">
         <v>0.36</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="5">
         <v>0.33</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="4">
         <f t="shared" si="0"/>
         <v>0.41</v>
       </c>
-      <c r="Q15" s="5"/>
+      <c r="Q15" s="4"/>
       <c r="R15" s="2">
         <v>400</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="5">
         <v>0.42</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="5">
         <v>0.33</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="5">
         <v>0.39</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="5">
         <v>0.37</v>
       </c>
       <c r="W15" s="4">
         <f t="shared" si="1"/>
         <v>0.38</v>
       </c>
-      <c r="X15" s="5">
-        <f t="shared" si="2"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="Z15" s="5"/>
-      <c r="AE15" s="5"/>
+      <c r="X15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AE15" s="4"/>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>500</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
+        <f>(Table5[[#This Row],[RT20]]+Table6[[#This Row],[RT20]])/2</f>
         <v>0.38</v>
       </c>
       <c r="E16" s="1">
@@ -1980,55 +1653,53 @@
       <c r="K16" s="2">
         <v>500</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="5">
         <v>0.37</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="5">
         <v>0.34</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16" s="9">
         <v>0.36</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="4">
         <f t="shared" si="0"/>
         <v>0.41</v>
       </c>
-      <c r="Q16" s="5"/>
+      <c r="Q16" s="4"/>
       <c r="R16" s="2">
         <v>500</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="5">
         <v>0.41</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="5">
         <v>0.42</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="5">
         <v>0.31</v>
       </c>
-      <c r="V16" s="20">
+      <c r="V16" s="9">
         <v>0.4</v>
       </c>
       <c r="W16" s="4">
         <f t="shared" si="1"/>
         <v>0.39</v>
       </c>
-      <c r="X16" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="Z16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
+      <c r="X16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>630</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
+        <f>(Table5[[#This Row],[RT20]]+Table6[[#This Row],[RT20]])/2</f>
         <v>0.41</v>
       </c>
       <c r="E17" s="1">
@@ -2046,56 +1717,54 @@
       <c r="K17" s="2">
         <v>630</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>0.46</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="5">
         <v>0.36</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="5">
         <v>0.39</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="9">
         <v>0.39</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="4">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="Q17" s="5"/>
+      <c r="Q17" s="4"/>
       <c r="R17" s="2">
         <v>630</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="5">
         <v>0.42</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="5">
         <v>0.44</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="5">
         <v>0.39</v>
       </c>
-      <c r="V17" s="20">
+      <c r="V17" s="9">
         <v>0.4</v>
       </c>
       <c r="W17" s="4">
         <f t="shared" si="1"/>
         <v>0.41</v>
       </c>
-      <c r="X17" s="5">
-        <f t="shared" si="2"/>
-        <v>9.9999999999999534E-3</v>
-      </c>
-      <c r="Z17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
+      <c r="X17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>800</v>
       </c>
-      <c r="C18">
-        <v>0.43</v>
+      <c r="C18" s="4">
+        <f>(Table5[[#This Row],[RT20]]+Table6[[#This Row],[RT20]])/2</f>
+        <v>0.435</v>
       </c>
       <c r="E18" s="1">
         <v>800</v>
@@ -2112,55 +1781,53 @@
       <c r="K18" s="2">
         <v>800</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>0.48</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <v>0.45</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="5">
         <v>0.47</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="5">
         <v>0.45</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="4">
         <f t="shared" si="0"/>
         <v>0.46</v>
       </c>
-      <c r="Q18" s="5"/>
+      <c r="Q18" s="4"/>
       <c r="R18" s="2">
         <v>800</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="5">
         <v>0.33</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="5">
         <v>0.41</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="5">
         <v>0.48</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="5">
         <v>0.41</v>
       </c>
       <c r="W18" s="4">
         <f t="shared" si="1"/>
         <v>0.41</v>
       </c>
-      <c r="X18" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="5"/>
-      <c r="AE18" s="5"/>
+      <c r="X18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AE18" s="4"/>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>1000</v>
       </c>
-      <c r="C19">
-        <v>0.48</v>
+      <c r="C19" s="4">
+        <f>(Table5[[#This Row],[RT20]]+Table6[[#This Row],[RT20]])/2</f>
+        <v>0.495</v>
       </c>
       <c r="E19" s="1">
         <v>1000</v>
@@ -2177,54 +1844,52 @@
       <c r="K19" s="2">
         <v>1000</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>0.41</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <v>0.45</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="5">
         <v>0.52</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="5">
         <v>0.52</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="4">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
-      <c r="Q19" s="5"/>
+      <c r="Q19" s="4"/>
       <c r="R19" s="2">
         <v>1000</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="5">
         <v>0.46</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="5">
         <v>0.51</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="5">
         <v>0.41</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="5">
         <v>0.42</v>
       </c>
       <c r="W19" s="4">
         <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
-      <c r="X19" s="5">
-        <f t="shared" si="2"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="Z19" s="5"/>
-      <c r="AE19" s="5"/>
+      <c r="X19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AE19" s="4"/>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>1250</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
+        <f>(Table5[[#This Row],[RT20]]+Table6[[#This Row],[RT20]])/2</f>
         <v>0.44</v>
       </c>
       <c r="E20" s="1">
@@ -2242,56 +1907,54 @@
       <c r="K20" s="2">
         <v>1250</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <v>0.42</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="5">
         <v>0.39</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="9">
         <v>0.5</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" s="4">
         <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
-      <c r="Q20" s="5"/>
+      <c r="Q20" s="4"/>
       <c r="R20" s="2">
         <v>1250</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="5">
         <v>0.47</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="5">
         <v>0.41</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="5">
         <v>0.42</v>
       </c>
-      <c r="V20" s="20">
+      <c r="V20" s="9">
         <v>0.5</v>
       </c>
       <c r="W20" s="4">
         <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
-      <c r="X20" s="5">
-        <f t="shared" si="2"/>
-        <v>-4.9999999999999989E-2</v>
-      </c>
-      <c r="Z20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
+      <c r="X20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>1600</v>
       </c>
-      <c r="C21">
-        <v>0.45</v>
+      <c r="C21" s="4">
+        <f>(Table5[[#This Row],[RT20]]+Table6[[#This Row],[RT20]])/2</f>
+        <v>0.44500000000000001</v>
       </c>
       <c r="E21" s="1">
         <v>1600</v>
@@ -2308,55 +1971,53 @@
       <c r="K21" s="2">
         <v>1600</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
         <v>0.43</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="5">
         <v>0.42</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="5">
         <v>0.48</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="5">
         <v>0.44</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="4">
         <f t="shared" si="0"/>
         <v>0.44</v>
       </c>
-      <c r="Q21" s="5"/>
+      <c r="Q21" s="4"/>
       <c r="R21" s="2">
         <v>1600</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="5">
         <v>0.46</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="5">
         <v>0.43</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="5">
         <v>0.46</v>
       </c>
-      <c r="V21" s="6">
+      <c r="V21" s="5">
         <v>0.47</v>
       </c>
       <c r="W21" s="4">
         <f t="shared" si="1"/>
         <v>0.46</v>
       </c>
-      <c r="X21" s="5">
-        <f t="shared" si="2"/>
-        <v>-9.9999999999999534E-3</v>
-      </c>
-      <c r="Z21" s="5"/>
-      <c r="AE21" s="5"/>
+      <c r="X21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AE21" s="4"/>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>2000</v>
       </c>
-      <c r="C22">
-        <v>0.43</v>
+      <c r="C22" s="4">
+        <f>(Table5[[#This Row],[RT20]]+Table6[[#This Row],[RT20]])/2</f>
+        <v>0.42499999999999999</v>
       </c>
       <c r="E22" s="1">
         <v>2000</v>
@@ -2373,55 +2034,53 @@
       <c r="K22" s="2">
         <v>2000</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <v>0.41</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="5">
         <v>0.4</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="5">
         <v>0.44</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="5">
         <v>0.43</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="4">
         <f t="shared" si="0"/>
         <v>0.42</v>
       </c>
-      <c r="Q22" s="5"/>
+      <c r="Q22" s="4"/>
       <c r="R22" s="2">
         <v>2000</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="5">
         <v>0.49</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="5">
         <v>0.41</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="5">
         <v>0.44</v>
       </c>
-      <c r="V22" s="6">
+      <c r="V22" s="5">
         <v>0.43</v>
       </c>
       <c r="W22" s="4">
         <f t="shared" si="1"/>
         <v>0.44</v>
       </c>
-      <c r="X22" s="5">
-        <f t="shared" si="2"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="Z22" s="5"/>
-      <c r="AE22" s="5"/>
+      <c r="X22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AE22" s="4"/>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>2500</v>
       </c>
-      <c r="C23">
-        <v>0.43</v>
+      <c r="C23" s="4">
+        <f>(Table5[[#This Row],[RT20]]+Table6[[#This Row],[RT20]])/2</f>
+        <v>0.42499999999999999</v>
       </c>
       <c r="E23" s="1">
         <v>2500</v>
@@ -2438,61 +2097,59 @@
       <c r="K23" s="2">
         <v>2500</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
         <v>0.42</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23" s="9">
         <v>0.43</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="5">
         <v>0.42</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="5">
         <v>0.4</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="4">
         <f t="shared" si="0"/>
         <v>0.42</v>
       </c>
-      <c r="Q23" s="5"/>
+      <c r="Q23" s="4"/>
       <c r="R23" s="2">
         <v>2500</v>
       </c>
-      <c r="S23" s="6">
+      <c r="S23" s="5">
         <v>0.38</v>
       </c>
-      <c r="T23" s="20">
+      <c r="T23" s="9">
         <v>0.4</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U23" s="5">
         <v>0.49</v>
       </c>
-      <c r="V23" s="6">
+      <c r="V23" s="5">
         <v>0.47</v>
       </c>
       <c r="W23" s="4">
         <f t="shared" si="1"/>
         <v>0.44</v>
       </c>
-      <c r="X23" s="5">
-        <f t="shared" si="2"/>
-        <v>-2.9999999999999971E-2</v>
-      </c>
-      <c r="Z23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AE23" s="5"/>
+      <c r="X23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AE23" s="4"/>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>3150</v>
       </c>
-      <c r="C24">
-        <v>0.42</v>
+      <c r="C24" s="4">
+        <f>(Table5[[#This Row],[RT20]]+Table6[[#This Row],[RT20]])/2</f>
+        <v>0.41000000000000003</v>
       </c>
       <c r="E24" s="1">
         <v>3150</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>0.4</v>
       </c>
       <c r="H24" s="1">
@@ -2504,55 +2161,53 @@
       <c r="K24" s="2">
         <v>3150</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <v>0.44</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <v>0.38</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="5">
         <v>0.41</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="5">
         <v>0.43</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P24" s="4">
         <f t="shared" si="0"/>
         <v>0.42</v>
       </c>
-      <c r="Q24" s="5"/>
+      <c r="Q24" s="4"/>
       <c r="R24" s="2">
         <v>3150</v>
       </c>
-      <c r="S24" s="6">
+      <c r="S24" s="5">
         <v>0.39</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T24" s="5">
         <v>0.42</v>
       </c>
-      <c r="U24" s="6">
+      <c r="U24" s="5">
         <v>0.49</v>
       </c>
-      <c r="V24" s="6">
+      <c r="V24" s="5">
         <v>0.44</v>
       </c>
       <c r="W24" s="4">
         <f t="shared" si="1"/>
         <v>0.44</v>
       </c>
-      <c r="X24" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="5"/>
-      <c r="AE24" s="5"/>
+      <c r="X24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AE24" s="4"/>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>4000</v>
       </c>
-      <c r="C25">
-        <v>0.41</v>
+      <c r="C25" s="4">
+        <f>(Table5[[#This Row],[RT20]]+Table6[[#This Row],[RT20]])/2</f>
+        <v>0.39500000000000002</v>
       </c>
       <c r="E25" s="1">
         <v>4000</v>
@@ -2569,56 +2224,54 @@
       <c r="K25" s="2">
         <v>4000</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <v>0.35</v>
       </c>
-      <c r="M25" s="20">
+      <c r="M25" s="9">
         <v>0.37</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="5">
         <v>0.4</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="5">
         <v>0.38</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25" s="4">
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
-      <c r="Q25" s="5"/>
+      <c r="Q25" s="4"/>
       <c r="R25" s="2">
         <v>4000</v>
       </c>
-      <c r="S25" s="6">
+      <c r="S25" s="5">
         <v>0.41</v>
       </c>
-      <c r="T25" s="20">
+      <c r="T25" s="9">
         <v>0.4</v>
       </c>
-      <c r="U25" s="6">
+      <c r="U25" s="5">
         <v>0.48</v>
       </c>
-      <c r="V25" s="6">
+      <c r="V25" s="5">
         <v>0.48</v>
       </c>
       <c r="W25" s="4">
         <f t="shared" si="1"/>
         <v>0.44</v>
       </c>
-      <c r="X25" s="5">
-        <f t="shared" si="2"/>
-        <v>-3.999999999999998E-2</v>
-      </c>
-      <c r="Z25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AE25" s="5"/>
+      <c r="X25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AE25" s="4"/>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>5000</v>
       </c>
-      <c r="C26">
-        <v>0.39</v>
+      <c r="C26" s="4">
+        <f>(Table5[[#This Row],[RT20]]+Table6[[#This Row],[RT20]])/2</f>
+        <v>0.38500000000000001</v>
       </c>
       <c r="E26" s="1">
         <v>5000</v>
@@ -2635,52 +2288,49 @@
       <c r="K26" s="2">
         <v>5000</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <v>0.38</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="5">
         <v>0.37</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="5">
         <v>0.39</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="9">
         <v>0.39</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26" s="4">
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
-      <c r="Q26" s="5"/>
+      <c r="Q26" s="4"/>
       <c r="R26" s="2">
         <v>5000</v>
       </c>
-      <c r="S26" s="6">
+      <c r="S26" s="5">
         <v>0.39</v>
       </c>
-      <c r="T26" s="6">
+      <c r="T26" s="5">
         <v>0.37</v>
       </c>
-      <c r="U26" s="6">
+      <c r="U26" s="5">
         <v>0.42</v>
       </c>
-      <c r="V26" s="20">
+      <c r="V26" s="9">
         <v>0.4</v>
       </c>
       <c r="W26" s="4">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="X26" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
+      <c r="X26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
@@ -2690,7 +2340,9 @@
     <mergeCell ref="R3:V3"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B3:I3"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="5">
     <tablePart r:id="rId1"/>
@@ -2700,577 +2352,4 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDADECA-F217-E745-832C-239F00322411}">
-  <dimension ref="A2:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>50</v>
-      </c>
-      <c r="B5">
-        <v>1.31</v>
-      </c>
-      <c r="D5" s="1">
-        <v>50</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1.21</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1.21</v>
-      </c>
-      <c r="H5" s="11">
-        <v>50</v>
-      </c>
-      <c r="I5" s="18">
-        <f>ROUND(AVERAGE(Table1[[#This Row],[Column2]],F5),1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>63</v>
-      </c>
-      <c r="B6">
-        <v>0.44</v>
-      </c>
-      <c r="D6" s="1">
-        <v>63</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.77</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="H6" s="12">
-        <v>63</v>
-      </c>
-      <c r="I6" s="18">
-        <f>ROUND(AVERAGE(Table1[[#This Row],[Column2]],F6),1)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>80</v>
-      </c>
-      <c r="B7">
-        <v>0.46</v>
-      </c>
-      <c r="D7" s="1">
-        <v>80</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="H7" s="12">
-        <v>80</v>
-      </c>
-      <c r="I7" s="18">
-        <f>ROUND(AVERAGE(Table1[[#This Row],[Column2]],F7),1)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>100</v>
-      </c>
-      <c r="B8">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="D8" s="1">
-        <v>100</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="H8" s="12">
-        <v>100</v>
-      </c>
-      <c r="I8" s="18">
-        <f>ROUND(AVERAGE(Table1[[#This Row],[Column2]],F8),1)</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>125</v>
-      </c>
-      <c r="B9">
-        <v>0.67</v>
-      </c>
-      <c r="D9" s="1">
-        <v>125</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.38</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="H9" s="12">
-        <v>125</v>
-      </c>
-      <c r="I9" s="18">
-        <f>ROUND(AVERAGE(Table1[[#This Row],[Column2]],F9),1)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>160</v>
-      </c>
-      <c r="B10">
-        <v>0.52</v>
-      </c>
-      <c r="D10" s="1">
-        <v>160</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="H10" s="12">
-        <v>160</v>
-      </c>
-      <c r="I10" s="18">
-        <f>ROUND(AVERAGE(Table1[[#This Row],[Column2]],F10),1)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>200</v>
-      </c>
-      <c r="B11">
-        <v>0.41</v>
-      </c>
-      <c r="D11" s="1">
-        <v>200</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.52</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.52</v>
-      </c>
-      <c r="H11" s="12">
-        <v>200</v>
-      </c>
-      <c r="I11" s="18">
-        <f>ROUND(AVERAGE(Table1[[#This Row],[Column2]],F11),1)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>250</v>
-      </c>
-      <c r="B12">
-        <v>0.47</v>
-      </c>
-      <c r="D12" s="1">
-        <v>250</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="H12" s="12">
-        <v>250</v>
-      </c>
-      <c r="I12" s="18">
-        <f>ROUND(AVERAGE(Table1[[#This Row],[Column2]],F12),1)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>315</v>
-      </c>
-      <c r="B13">
-        <v>0.54</v>
-      </c>
-      <c r="D13" s="1">
-        <v>315</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H13" s="12">
-        <v>315</v>
-      </c>
-      <c r="I13" s="18">
-        <f>ROUND(AVERAGE(Table1[[#This Row],[Column2]],F13),1)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>400</v>
-      </c>
-      <c r="B14">
-        <v>0.44</v>
-      </c>
-      <c r="D14" s="1">
-        <v>400</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.38</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="H14" s="12">
-        <v>400</v>
-      </c>
-      <c r="I14" s="18">
-        <f>ROUND(AVERAGE(Table1[[#This Row],[Column2]],F14),1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>500</v>
-      </c>
-      <c r="B15">
-        <v>0.38</v>
-      </c>
-      <c r="D15" s="1">
-        <v>500</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.39</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="H15" s="12">
-        <v>500</v>
-      </c>
-      <c r="I15" s="18">
-        <f>ROUND(AVERAGE(Table1[[#This Row],[Column2]],F15),1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>630</v>
-      </c>
-      <c r="B16">
-        <v>0.41</v>
-      </c>
-      <c r="D16" s="1">
-        <v>630</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.41</v>
-      </c>
-      <c r="H16" s="12">
-        <v>630</v>
-      </c>
-      <c r="I16" s="18">
-        <f>ROUND(AVERAGE(Table1[[#This Row],[Column2]],F16),1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>800</v>
-      </c>
-      <c r="B17">
-        <v>0.44</v>
-      </c>
-      <c r="D17" s="1">
-        <v>800</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.41</v>
-      </c>
-      <c r="H17" s="12">
-        <v>800</v>
-      </c>
-      <c r="I17" s="18">
-        <f>ROUND(AVERAGE(Table1[[#This Row],[Column2]],F17),1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B18">
-        <v>0.51</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="H18" s="12">
-        <v>1000</v>
-      </c>
-      <c r="I18" s="18">
-        <f>ROUND(AVERAGE(Table1[[#This Row],[Column2]],F18),1)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>1250</v>
-      </c>
-      <c r="B19">
-        <v>0.47</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1250</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="H19" s="12">
-        <v>1250</v>
-      </c>
-      <c r="I19" s="18">
-        <f>ROUND(AVERAGE(Table1[[#This Row],[Column2]],F19),1)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>1600</v>
-      </c>
-      <c r="B20">
-        <v>0.44</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1600</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="H20" s="12">
-        <v>1600</v>
-      </c>
-      <c r="I20" s="18">
-        <f>ROUND(AVERAGE(Table1[[#This Row],[Column2]],F20),1)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B21">
-        <v>0.42</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0.44</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="H21" s="12">
-        <v>2000</v>
-      </c>
-      <c r="I21" s="18">
-        <f>ROUND(AVERAGE(Table1[[#This Row],[Column2]],F21),1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2500</v>
-      </c>
-      <c r="B22">
-        <v>0.42</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2500</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.44</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="H22" s="12">
-        <v>2500</v>
-      </c>
-      <c r="I22" s="18">
-        <f>ROUND(AVERAGE(Table1[[#This Row],[Column2]],F22),1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>3150</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3150</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0.44</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="H23" s="12">
-        <v>3150</v>
-      </c>
-      <c r="I23" s="18">
-        <f>ROUND(AVERAGE(Table1[[#This Row],[Column2]],F23),1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>4000</v>
-      </c>
-      <c r="B24">
-        <v>0.38</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4000</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0.44</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="H24" s="12">
-        <v>4000</v>
-      </c>
-      <c r="I24" s="18">
-        <f>ROUND(AVERAGE(Table1[[#This Row],[Column2]],F24),1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>5000</v>
-      </c>
-      <c r="B25">
-        <v>0.38</v>
-      </c>
-      <c r="D25" s="1">
-        <v>5000</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="H25" s="13">
-        <v>5000</v>
-      </c>
-      <c r="I25" s="18">
-        <f>ROUND(AVERAGE(Table1[[#This Row],[Column2]],F25),1)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="3">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-  </tableParts>
-</worksheet>
 </file>